--- a/station_in_config/Line.xlsx
+++ b/station_in_config/Line.xlsx
@@ -1,37 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="570" windowWidth="7335" windowHeight="8385"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>Line_1</t>
+  </si>
+  <si>
+    <t>Line_2</t>
+  </si>
+  <si>
+    <t>Line_3</t>
+  </si>
+  <si>
+    <t>Line_4</t>
+  </si>
+  <si>
+    <t>Line_5</t>
+  </si>
+  <si>
+    <t>Line_6</t>
+  </si>
+  <si>
+    <t>Line_7</t>
+  </si>
+  <si>
+    <t>Point_1 Point_2</t>
+  </si>
+  <si>
+    <t>Point_10 Point_11</t>
+  </si>
+  <si>
+    <t>Point_12 Point_3</t>
+  </si>
+  <si>
+    <t>Point_10 Point_17</t>
+  </si>
+  <si>
+    <t>Point_11 Point_19</t>
+  </si>
+  <si>
+    <t>Point_16 Point_12</t>
+  </si>
+  <si>
+    <t>Point_18 Point_20</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +99,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,29 +415,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>points</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/station_in_config/Line.xlsx
+++ b/station_in_config/Line.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="570" windowWidth="7335" windowHeight="8385"/>
+    <workbookView xWindow="225" yWindow="450" windowWidth="7335" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/station_in_config/Line.xlsx
+++ b/station_in_config/Line.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="450" windowWidth="7335" windowHeight="8385"/>
+    <workbookView xWindow="11370" yWindow="465" windowWidth="7335" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,14 +61,14 @@
     <t>Point_16 Point_12</t>
   </si>
   <si>
-    <t>Point_18 Point_20</t>
+    <t>Point_18 Point_20 Point_15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +128,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,19 +420,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -443,7 +448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -451,7 +456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -459,7 +464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -467,7 +472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -475,7 +480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -483,7 +488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>

--- a/station_in_config/Line.xlsx
+++ b/station_in_config/Line.xlsx
@@ -61,7 +61,7 @@
     <t>Point_16 Point_12</t>
   </si>
   <si>
-    <t>Point_18 Point_20 Point_15</t>
+    <t>Point_18 Point_20</t>
   </si>
 </sst>
 </file>

--- a/station_in_config/Line.xlsx
+++ b/station_in_config/Line.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11370" yWindow="465" windowWidth="7335" windowHeight="8385"/>
+    <workbookView xWindow="12255" yWindow="75" windowWidth="7335" windowHeight="4170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,19 +420,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -448,7 +448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -456,7 +456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -464,7 +464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -472,7 +472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -480,7 +480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -488,7 +488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>

--- a/station_in_config/Line.xlsx
+++ b/station_in_config/Line.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/station_in_config/Line.xlsx
+++ b/station_in_config/Line.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/station_in_config/Line.xlsx
+++ b/station_in_config/Line.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/station_in_config/Line.xlsx
+++ b/station_in_config/Line.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12255" yWindow="75" windowWidth="7335" windowHeight="4170"/>
+    <workbookView xWindow="2415" yWindow="165" windowWidth="7335" windowHeight="4170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,19 +420,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -448,7 +448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -456,7 +456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -464,7 +464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -472,7 +472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -480,7 +480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -488,7 +488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>

--- a/station_in_config/Line.xlsx
+++ b/station_in_config/Line.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="165" windowWidth="7335" windowHeight="4170"/>
+    <workbookView xWindow="1665" yWindow="150" windowWidth="13605" windowHeight="4170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,26 +421,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -448,7 +450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -456,7 +458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -464,7 +466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -472,7 +474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -480,7 +482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -488,7 +490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>

--- a/station_in_config/Line.xlsx
+++ b/station_in_config/Line.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="150" windowWidth="13605" windowHeight="4170"/>
+    <workbookView xWindow="6975" yWindow="3420" windowWidth="13605" windowHeight="4170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,20 +420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="37.140625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +442,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -450,7 +450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -458,7 +458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -466,7 +466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -474,7 +474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -482,7 +482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -490,7 +490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
